--- a/data/Protocols.xlsx
+++ b/data/Protocols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u050158/django/istanbul/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F527513-518F-CC49-BFE7-725789E94293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF28441F-DEFC-F644-9FCA-4F1F012EDAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18640" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="921" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -41,81 +41,132 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
+          <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    In onze vorige bespreking (11/11/2020), bespraken we dat dit veld ook gebruikt kan worden als filter. Als we nog geen use permission voor materialen hebben, zorgt Martijn er voor dat die materialen nog niet zichtbaar zijn voor end users. Dat is een mooie oplossing, maar het past bij nader inzien niet bij het origineel bedoelde gebruik van dit veld (zie de beschrijving in het gele veld). Om de filter-optie te kunnen gebruiken, moeten we dit veld anders gaan benaderen.
+Voorstel: hernoem veld "Use permission" en maak nieuwe beschrijving voor dit veld: "If we have use permission, select 'yes' from the drop-down menu. If we do not have use permission, select 'no' from the drop-down menu. If we do not have use permission but should obtain permission, select 'no - request use permission' from the drop-down menu." Martijn, je kunt beide 'no' opties eruit filteren, zodat ze niet zichtbaar zijn voor end users, toch?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Verhoeven, M.C.J. (Mariëtte)</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{09D83EE1-DBE8-4111-8443-6BE65E8D32F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verhoeven, M.C.J. (Mariëtte):</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+underscore verwijderen </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{958E4D28-DE63-4E48-98D3-B2ACD3433249}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verhoeven, M.C.J. (Mariëtte):</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
+          <t xml:space="preserve">
+underscore verwijderen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{545087D0-B114-4EBB-B31B-CB14B439BF88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verhoeven, M.C.J. (Mariëtte):</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+underscore verwijderen</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Verhoeven, M.C.J. (Mariëtte)</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{B2D25D2B-3A20-420E-BF44-A6D7D1A50EBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verhoeven, M.C.J. (Mariëtte):</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    In onze vorige bespreking (11/11/2020), bespraken we dat dit veld ook gebruikt kan worden als filter. Als we nog geen use permission voor materialen hebben, zorgt Martijn er voor dat die materialen nog niet zichtbaar zijn voor end users. Dat is een mooie oplossing, maar het past bij nader inzien niet bij het origineel bedoelde gebruik van dit veld (zie de beschrijving in het gele veld). Om de filter-optie te kunnen gebruiken, moeten we dit veld anders gaan benaderen.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Voorstel: hernoem veld "Use permission" en maak nieuwe beschrijving voor dit veld: "If we have use permission, select 'yes' from the drop-down menu. If we do not have use permission, select 'no' from the drop-down menu. If we do not have use permission but should obtain permission, select 'no - request use permission' from the drop-down menu." Martijn, je kunt beide 'no' opties eruit filteren, zodat ze niet zichtbaar zijn voor end users, toch?</t>
+hier stond 'description' maar moet 'text' worden</t>
         </r>
       </text>
     </comment>
@@ -124,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>Field</t>
   </si>
@@ -135,9 +186,6 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Enter the title in the original language.</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -162,21 +210,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>Enter the title in the ottoman language.</t>
-  </si>
-  <si>
-    <t>Enter the title in the english language.</t>
-  </si>
-  <si>
-    <t>Enter the title in the turkish language.</t>
-  </si>
-  <si>
-    <t>Give a description of the system</t>
-  </si>
-  <si>
-    <t>reserved for comments (not visible for end user)</t>
-  </si>
-  <si>
     <t>Installation</t>
   </si>
   <si>
@@ -190,13 +223,352 @@
   </si>
   <si>
     <t>Literature</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>purposes</t>
+  </si>
+  <si>
+    <t>still exists</t>
+  </si>
+  <si>
+    <t>Give a description of the installation.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>birth year</t>
+  </si>
+  <si>
+    <t>death year</t>
+  </si>
+  <si>
+    <t>start reign</t>
+  </si>
+  <si>
+    <t>end reign</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>institution type</t>
+  </si>
+  <si>
+    <t>Give a description of the institution.</t>
+  </si>
+  <si>
+    <t>decription</t>
+  </si>
+  <si>
+    <t>event type</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>date_comments</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Give a description of the event.</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>page numbers</t>
+  </si>
+  <si>
+    <t>uniek in database</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>Overzichtpagina</t>
+  </si>
+  <si>
+    <t>Indicate whether the person is male or female.</t>
+  </si>
+  <si>
+    <t>Enter the year in which this person was born.</t>
+  </si>
+  <si>
+    <t>Enter the year in which this person died.</t>
+  </si>
+  <si>
+    <t>Select an event you want to link to this installation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name of the system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the original language.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name of the installation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the original language.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name of the institution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the original language.</t>
+    </r>
+  </si>
+  <si>
+    <t>Add here any additional information that you cannot include in the other fields (not visible for end user).</t>
+  </si>
+  <si>
+    <r>
+      <t>Give a description of the system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Select a purpose you want to link to this installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicate whether an installation still exists, no longer exists or if it is unknown. </t>
+  </si>
+  <si>
+    <t>Enter the name of the person, if possible in English</t>
+  </si>
+  <si>
+    <t>Dit veld werkt niet maar dat komt waarchijnlijk omdat er niets is ingevuld</t>
+  </si>
+  <si>
+    <t>If applicable, enter the beginning of the reign of the person.</t>
+  </si>
+  <si>
+    <t>If applicable, enter the end of the reign of the person.</t>
+  </si>
+  <si>
+    <t>Select the religion of this person.</t>
+  </si>
+  <si>
+    <t>Enter the name of the system in the Ottoman language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the system in the English language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the system in the Turkish language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the installation in the Ottoman language.</t>
+  </si>
+  <si>
+    <t>Enter thename of the installation in the English language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the installation in the Turkish language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the institution in the Ottoman language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the institution in the English language.</t>
+  </si>
+  <si>
+    <t>Enter the name of the institution in the Turkish language.</t>
+  </si>
+  <si>
+    <t>Select the insitution type.</t>
+  </si>
+  <si>
+    <t>Choose the religion to which the institution belongs.</t>
+  </si>
+  <si>
+    <t>Enter the religon.</t>
+  </si>
+  <si>
+    <t>Give a description of the religion.</t>
+  </si>
+  <si>
+    <t>Enter the event.</t>
+  </si>
+  <si>
+    <t>Select the event type.</t>
+  </si>
+  <si>
+    <t>Enter the starting date of the event.</t>
+  </si>
+  <si>
+    <t>Enter the end date of the event.</t>
+  </si>
+  <si>
+    <t>Add here any additional remarks on the date.</t>
+  </si>
+  <si>
+    <t>Link figure.</t>
+  </si>
+  <si>
+    <t>Link images.</t>
+  </si>
+  <si>
+    <t>Enter the title of the publication or primary source.</t>
+  </si>
+  <si>
+    <t>Enter the place of publication, if known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the author-year code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the name of the author </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the name of the editor. </t>
+  </si>
+  <si>
+    <t>Enter the name of the publisher..</t>
+  </si>
+  <si>
+    <t>Enter the volume of the journal.</t>
+  </si>
+  <si>
+    <t>Enter the page numbers of the article.</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Enter the source text.</t>
+  </si>
+  <si>
+    <t>Enter the year of publication, if known.</t>
+  </si>
+  <si>
+    <t>Enter the name of the journal or volume.</t>
+  </si>
+  <si>
+    <t>Enter the issue of the journal or volume.</t>
+  </si>
+  <si>
+    <t>Give a description of the person.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,9 +593,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,6 +682,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,130 +1019,134 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C24" dT="2020-11-13T08:58:16.33" personId="{C26FBF23-C5AC-4DC8-A7D2-8A64FF201DC5}" id="{1072B17D-0430-49AB-93A2-2C81446E3E13}">
+  <threadedComment ref="C32" dT="2020-11-13T08:58:16.33" personId="{C26FBF23-C5AC-4DC8-A7D2-8A64FF201DC5}" id="{1072B17D-0430-49AB-93A2-2C81446E3E13}">
     <text>In onze vorige bespreking (11/11/2020), bespraken we dat dit veld ook gebruikt kan worden als filter. Als we nog geen use permission voor materialen hebben, zorgt Martijn er voor dat die materialen nog niet zichtbaar zijn voor end users. Dat is een mooie oplossing, maar het past bij nader inzien niet bij het origineel bedoelde gebruik van dit veld (zie de beschrijving in het gele veld). Om de filter-optie te kunnen gebruiken, moeten we dit veld anders gaan benaderen.
 Voorstel: hernoem veld "Use permission" en maak nieuwe beschrijving voor dit veld: "If we have use permission, select 'yes' from the drop-down menu. If we do not have use permission, select 'no' from the drop-down menu. If we do not have use permission but should obtain permission, select 'no - request use permission' from the drop-down menu." Martijn, je kunt beide 'no' opties eruit filteren, zodat ze niet zichtbaar zijn voor end users, toch?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A14" dT="2020-11-06T09:30:29.22" personId="{C26FBF23-C5AC-4DC8-A7D2-8A64FF201DC5}" id="{F7DBCE83-71A1-4035-AF36-C51DDD929C84}">
-    <text>This is not in the repository (yet)?</text>
-  </threadedComment>
-  <threadedComment ref="B15" dT="2020-11-13T09:09:06.95" personId="{C26FBF23-C5AC-4DC8-A7D2-8A64FF201DC5}" id="{CC94FBC0-0FAC-47EF-A7C6-3205BC49AD30}">
-    <text>Als we de mogelijkheid tot image upload toevoegen, moeten we ook een veld met use permission toevoegen, niet?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="1"/>
     <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="60.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,30 +1171,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CFF2F-B803-4935-AE80-6720B813B8AC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="107.5" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -772,36 +1313,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A3:A18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="1"/>
     <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="49.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="8"/>
     </row>
   </sheetData>
@@ -812,21 +1478,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="46.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,9 +1503,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -846,75 +1610,246 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370B46B3-6EE1-4216-A803-6AF09A06E7EC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D925AC44-FF41-4DE4-9EED-0562877DBB84}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D925AC44-FF41-4DE4-9EED-0562877DBB84}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -922,23 +1857,188 @@
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Protocols.xlsx
+++ b/data/Protocols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u050158/django/istanbul/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF28441F-DEFC-F644-9FCA-4F1F012EDAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C54FEE6-0697-2A4B-8081-E87E8A89CCC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="921" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="921" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -79,12 +79,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-underscore verwijderen </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">underscore verwijderen </t>
         </r>
       </text>
     </comment>
@@ -94,7 +103,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -103,12 +112,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-underscore verwijderen</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>underscore verwijderen</t>
         </r>
       </text>
     </comment>
@@ -118,7 +136,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -127,12 +145,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-underscore verwijderen</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>underscore verwijderen</t>
         </r>
       </text>
     </comment>
@@ -152,7 +179,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -161,12 +188,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-hier stond 'description' maar moet 'text' worden</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hier stond 'description' maar moet 'text' worden</t>
         </r>
       </text>
     </comment>
@@ -175,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="101">
   <si>
     <t>Field</t>
   </si>
@@ -268,15 +304,6 @@
   </si>
   <si>
     <t>event type</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>date_comments</t>
   </si>
   <si>
     <t>images</t>
@@ -562,6 +589,15 @@
   </si>
   <si>
     <t>Give a description of the person.</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>end date</t>
+  </si>
+  <si>
+    <t>date comments</t>
   </si>
 </sst>
 </file>
@@ -619,24 +655,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -696,7 +732,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1072,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1083,16 +1119,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1103,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1117,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1202,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1213,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1224,16 +1260,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1244,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1258,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1269,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1280,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1302,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1346,16 +1382,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1366,10 +1402,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1380,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1397,13 +1433,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1414,10 +1450,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1428,10 +1464,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1442,7 +1478,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1464,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1522,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1533,16 +1569,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1553,10 +1589,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1567,7 +1603,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1578,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1600,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1642,16 +1678,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1662,7 +1698,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1673,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1684,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1697,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D925AC44-FF41-4DE4-9EED-0562877DBB84}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1726,16 +1762,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1746,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1754,16 +1790,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1771,16 +1807,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1788,10 +1824,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1799,10 +1835,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1810,10 +1846,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1824,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1848,15 +1884,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="1"/>
@@ -1875,13 +1911,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1889,19 +1925,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1909,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1920,10 +1956,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1931,10 +1967,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1942,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,10 +1989,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1964,10 +2000,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1975,10 +2011,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1986,10 +2022,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1997,10 +2033,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2008,13 +2044,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2022,16 +2058,11 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
